--- a/code feature spreadsheet.xlsx
+++ b/code feature spreadsheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexa\Documents\GitHub\Excel-Spreadsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6415BE55-669E-4B89-8FBF-EA3E65A6E60D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B49AD362-0D6B-4AD3-A011-FEF1C13B2129}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="40155" windowHeight="11265" xr2:uid="{C567FD73-2A6C-4D07-85D4-35AB6856CD19}"/>
+    <workbookView xWindow="4200" yWindow="4200" windowWidth="21600" windowHeight="11385" xr2:uid="{C567FD73-2A6C-4D07-85D4-35AB6856CD19}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
   <si>
     <t>Project name</t>
   </si>
@@ -94,6 +94,9 @@
   </si>
   <si>
     <t>create melee ai</t>
+  </si>
+  <si>
+    <t>vj.gentry06@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -542,7 +545,7 @@
   <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -624,7 +627,9 @@
       <c r="B3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="1"/>
+      <c r="C3" s="9" t="s">
+        <v>23</v>
+      </c>
       <c r="D3" s="3" t="s">
         <v>18</v>
       </c>
@@ -688,6 +693,7 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" xr:uid="{D62D75A4-A245-4009-A29F-053289F664E4}"/>
+    <hyperlink ref="C3" r:id="rId2" xr:uid="{6795B4A3-A68F-4041-832F-CFACE47A371C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
